--- a/doc/results.xlsx
+++ b/doc/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sighirea/Ron/sl-comp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sighirea/Ron/sl-comp/github/sl-comp/SL-COMP18/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766B5A5-1447-5547-92A7-711E49B0F633}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81959452-5225-AE43-941C-CB68D0E99EB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="19040" windowHeight="9560" firstSheet="1" activeTab="2" xr2:uid="{38889418-346B-2D4B-973E-3D7FDABCBE04}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="19320" windowHeight="15300" firstSheet="3" activeTab="10" xr2:uid="{38889418-346B-2D4B-973E-3D7FDABCBE04}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="qf_bsllia_sat" sheetId="10" r:id="rId9"/>
     <sheet name="qf_shidlia_entl" sheetId="11" r:id="rId10"/>
     <sheet name="qf_shidlia_sat" sheetId="12" r:id="rId11"/>
-    <sheet name="Gen" sheetId="4" r:id="rId12"/>
-    <sheet name="shidlia_entl" sheetId="13" r:id="rId13"/>
+    <sheet name="shidlia_entl" sheetId="13" r:id="rId12"/>
+    <sheet name="Gen" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -198,7 +198,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -286,12 +286,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -343,7 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,7 +1579,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$12</c:f>
+              <c:f>benchmark!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1643,12 +1643,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$12:$L$12</c:f>
+              <c:f>benchmark!$B$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>167</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1675,7 +1675,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2442,13 +2442,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2478,8 +2478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F532421E-F561-3442-8F1E-6C21DED2501D}" name="Table1" displayName="Table1" ref="A1:L12" totalsRowShown="0">
-  <autoFilter ref="A1:L12" xr:uid="{E03781AE-4D9C-A449-9EC1-301D211EB0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F532421E-F561-3442-8F1E-6C21DED2501D}" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0">
+  <autoFilter ref="A1:L14" xr:uid="{E03781AE-4D9C-A449-9EC1-301D211EB0D4}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DB7B1610-6119-834D-9F2D-E2584F00C476}" name="Division"/>
     <tableColumn id="2" xr3:uid="{4D9A8E6E-E4FC-274A-BE7A-262F49A7AA9E}" name="#problems"/>
@@ -2991,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249A9F21-0A03-DD4A-BF01-7DDBC720524F}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,40 +3423,48 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
-        <v>167</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>167</v>
-      </c>
-      <c r="L12">
+      <c r="B14">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>181</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
@@ -3474,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB57354-13D6-4E4B-B6D1-06DF55C0DE8A}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,22 +3586,22 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>1557.7</v>
+        <v>995.3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>2400</v>
@@ -3611,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6282AC0-2A14-3E46-95CF-A23387AA9FBB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3774,6 +3782,143 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE81689-5C14-1848-93C8-3225BDA26102}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>10564.9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>98</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>126</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>4248.2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455975F-A8BA-F74F-B7CB-1D1CDA8456D0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3814,149 +3959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE81689-5C14-1848-93C8-3225BDA26102}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>10564.9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>98</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>68</v>
-      </c>
-      <c r="I2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>126</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>152</v>
-      </c>
-      <c r="D4">
-        <v>4248.2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>2400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B301F-35D2-8C4D-95F6-69712D3406E7}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4210,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9D5B9-EDD1-B941-8777-BD2BE2FA0877}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4440,12 +4448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85727A16-1AEE-3B40-A26C-4CD3AA92A706}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4693,12 +4707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C65AAE-6E0C-BD42-AA38-E4F64341BF60}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5004,12 +5022,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CE43C9-A9B2-314C-BD41-49DE4F3A8D36}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5228,12 +5250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3897449-9A63-5442-A7E2-E7019C60B7B2}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5423,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14235EF8-53EB-894F-AC0B-574FC991558F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5502,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0852E0D4-365B-8E4E-9520-797860CD9EE9}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc/results.xlsx
+++ b/doc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sighirea/Ron/sl-comp/github/sl-comp/SL-COMP18/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81959452-5225-AE43-941C-CB68D0E99EB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{938857D2-9780-5745-98A2-AF17ABE5123C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="19320" windowHeight="15300" firstSheet="3" activeTab="10" xr2:uid="{38889418-346B-2D4B-973E-3D7FDABCBE04}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="19320" windowHeight="15300" firstSheet="5" activeTab="11" xr2:uid="{38889418-346B-2D4B-973E-3D7FDABCBE04}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
@@ -1579,7 +1579,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$14</c:f>
+              <c:f>benchmark!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1643,7 +1643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$14:$L$14</c:f>
+              <c:f>benchmark!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2442,13 +2442,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2478,8 +2478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F532421E-F561-3442-8F1E-6C21DED2501D}" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0">
-  <autoFilter ref="A1:L14" xr:uid="{E03781AE-4D9C-A449-9EC1-301D211EB0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F532421E-F561-3442-8F1E-6C21DED2501D}" name="Table1" displayName="Table1" ref="A1:L12" totalsRowShown="0">
+  <autoFilter ref="A1:L12" xr:uid="{E03781AE-4D9C-A449-9EC1-301D211EB0D4}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DB7B1610-6119-834D-9F2D-E2584F00C476}" name="Division"/>
     <tableColumn id="2" xr3:uid="{4D9A8E6E-E4FC-274A-BE7A-262F49A7AA9E}" name="#problems"/>
@@ -2991,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249A9F21-0A03-DD4A-BF01-7DDBC720524F}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,48 +3423,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B12">
         <v>181</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>181</v>
       </c>
-      <c r="L14">
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3475,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3619,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6282AC0-2A14-3E46-95CF-A23387AA9FBB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3785,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE81689-5C14-1848-93C8-3225BDA26102}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3964,7 +3956,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4218,9 +4210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9D5B9-EDD1-B941-8777-BD2BE2FA0877}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4449,7 +4439,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,6 +4687,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4708,7 +4699,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5023,7 +5014,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5251,7 +5242,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5451,7 +5442,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5530,7 +5521,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
